--- a/src/main/resources/templates/excel/dailyLog.xlsx
+++ b/src/main/resources/templates/excel/dailyLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\工作文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539C5C4E-3E0C-4FE9-9F81-E5450EEFAE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B63160-15C5-4B7B-B1B8-63A858622F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="980" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.date}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,11 +123,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.alertName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${e.moniter}</t>
+    <t>${dFormat.format(e.date)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.time}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.departmentId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.alerterName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.monitor}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -259,6 +267,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,9 +277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,7 +571,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -584,12 +592,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
@@ -604,33 +612,37 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/templates/excel/dailyLog.xlsx
+++ b/src/main/resources/templates/excel/dailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B63160-15C5-4B7B-B1B8-63A858622F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F25488-7D2E-42D8-AC7C-2B98B47F6D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="770" yWindow="980" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,15 +131,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.departmentId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.alerterName}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${e.monitor}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.departmentCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +571,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -634,13 +634,13 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" s="2"/>
     </row>

--- a/src/main/resources/templates/excel/dailyLog.xlsx
+++ b/src/main/resources/templates/excel/dailyLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F25488-7D2E-42D8-AC7C-2B98B47F6D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77811BB8-EFAC-4370-90AB-CCB6816B397C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="1040" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="M2")</t>
+          <t>jx:area(lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,37 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="e" lastCell="M2")</t>
+          <t>jx:each(items="list" var="e" lastCell="M3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AE27F550-F485-487D-8C72-67C460F29500}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="e.imgs" var="url" lastCell="M3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F67E14FD-33CC-4DD1-9F81-691139E4EDD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="M3" src="url")</t>
         </r>
       </text>
     </comment>
@@ -568,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -644,6 +674,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:I1"/>

--- a/src/main/resources/templates/excel/dailyLog.xlsx
+++ b/src/main/resources/templates/excel/dailyLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77811BB8-EFAC-4370-90AB-CCB6816B397C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849627F-BCB3-41B4-926D-162042630A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="170" yWindow="1040" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="M3")</t>
+          <t>jx:area(lastCell="M2")</t>
         </r>
       </text>
     </comment>
@@ -56,11 +56,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="e" lastCell="M3")</t>
+          <t>jx:each(items="list" var="e" lastCell="M2")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AE27F550-F485-487D-8C72-67C460F29500}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{B09B2180-F3A7-4080-9216-B1B999FF9AFF}">
       <text>
         <r>
           <rPr>
@@ -71,22 +71,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="e.imgs" var="url" lastCell="M3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F67E14FD-33CC-4DD1-9F81-691139E4EDD6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:image(lastCell="M3" src="url")</t>
+          <t>jx:each(items="e.imgs" var="url" lastCell="M2" direction="RIGHT")
+jx:image(lastCell="M2" src="url")</t>
         </r>
       </text>
     </comment>
@@ -228,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -288,11 +274,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +312,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,13 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="25.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -641,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -672,9 +676,17 @@
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:I1"/>

--- a/src/main/resources/templates/excel/dailyLog.xlsx
+++ b/src/main/resources/templates/excel/dailyLog.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/work/casinos_project/CCTV/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849627F-BCB3-41B4-926D-162042630A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="170" yWindow="1040" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="1600" windowWidth="20520" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lorenzo</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{92704CC2-A4CF-4020-B6C5-328D290DEAEC}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E3D66ED6-F7A3-420D-85D8-66849D416160}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{B09B2180-F3A7-4080-9216-B1B999FF9AFF}">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,10 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.no}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,13 +157,17 @@
   </si>
   <si>
     <t>${e.departmentCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,29 +229,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -254,23 +259,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -278,7 +283,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -295,6 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,12 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,19 +603,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="25.25" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,12 +631,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
@@ -645,47 +650,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M3" s="10"/>
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M4" s="10"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M5" s="10"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
